--- a/Hoja de Ruta.xlsx
+++ b/Hoja de Ruta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30ff2c0f03f75d68/Escritorio/The Kid Wonder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="11_AD4D2F04E46CFB4ACB3E20A51DD7E3B2683EDF1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34A0AEE8-154B-40B7-B23B-DF1EAAB1862D}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="11_AD4D2F04E46CFB4ACB3E20A51DD7E3B2683EDF1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F82C074B-D3AF-4E3F-8805-BE6A9277CE77}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1260" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,7 +138,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +164,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -739,8 +747,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -861,9 +870,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -873,8 +879,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="36" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1156,7 +1166,7 @@
   <dimension ref="A1:AA1001"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1346,7 +1356,7 @@
       <c r="S4" s="27"/>
       <c r="T4" s="28"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="41" t="s">
+      <c r="V4" s="40" t="s">
         <v>23</v>
       </c>
       <c r="W4" s="27"/>
@@ -1387,7 +1397,7 @@
       <c r="S5" s="11"/>
       <c r="T5" s="15"/>
       <c r="U5" s="1"/>
-      <c r="V5" s="42" t="s">
+      <c r="V5" s="41" t="s">
         <v>24</v>
       </c>
       <c r="W5" s="11"/>
@@ -1428,7 +1438,7 @@
       <c r="S6" s="11"/>
       <c r="T6" s="15"/>
       <c r="U6" s="1"/>
-      <c r="V6" s="42" t="s">
+      <c r="V6" s="41" t="s">
         <v>25</v>
       </c>
       <c r="W6" s="11"/>
@@ -1469,7 +1479,7 @@
       <c r="S7" s="11"/>
       <c r="T7" s="15"/>
       <c r="U7" s="1"/>
-      <c r="V7" s="42"/>
+      <c r="V7" s="41"/>
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
       <c r="Y7" s="11"/>
@@ -1508,7 +1518,7 @@
       <c r="S8" s="11"/>
       <c r="T8" s="15"/>
       <c r="U8" s="1"/>
-      <c r="V8" s="42"/>
+      <c r="V8" s="41"/>
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
       <c r="Y8" s="11"/>
@@ -1551,7 +1561,7 @@
       <c r="S9" s="16"/>
       <c r="T9" s="17"/>
       <c r="U9" s="1"/>
-      <c r="V9" s="43"/>
+      <c r="V9" s="42"/>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
       <c r="Y9" s="13"/>
@@ -1734,8 +1744,8 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:27" ht="52.5" thickBot="1">
-      <c r="A16" s="40" t="s">
+    <row r="16" spans="1:27" ht="60.75" thickBot="1">
+      <c r="A16" s="43" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="1"/>
@@ -30331,6 +30341,9 @@
       <c r="AA1001" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A16" r:id="rId1" xr:uid="{FEC7F5AB-D08F-45BD-9C7B-9B7068D081DD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Hoja de Ruta.xlsx
+++ b/Hoja de Ruta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30ff2c0f03f75d68/Escritorio/The Kid Wonder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="11_AD4D2F04E46CFB4ACB3E20A51DD7E3B2683EDF1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F82C074B-D3AF-4E3F-8805-BE6A9277CE77}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_AD4D2F04E46CFB4ACB3E20A51DD7E3B2683EDF1E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EED445C3-45B5-44E0-AD77-BD57DC3321D6}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1260" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,16 +89,10 @@
     <t>More Enemies</t>
   </si>
   <si>
-    <t>Props</t>
-  </si>
-  <si>
     <t>Another level</t>
   </si>
   <si>
     <t>Dialogues</t>
-  </si>
-  <si>
-    <t>Interactive tilemap</t>
   </si>
   <si>
     <t>GDD:</t>
@@ -132,6 +126,12 @@
   </si>
   <si>
     <t>Blueprint enemy</t>
+  </si>
+  <si>
+    <t>Interactive Items</t>
+  </si>
+  <si>
+    <t>Props and Checkpoints</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1166,7 @@
   <dimension ref="A1:AA1001"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1318,7 +1318,7 @@
     </row>
     <row r="4" spans="1:27" ht="27" thickTop="1">
       <c r="A4" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19" t="s">
@@ -1333,7 +1333,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="1"/>
       <c r="H4" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I4" s="19"/>
       <c r="J4" s="19" t="s">
@@ -1357,7 +1357,7 @@
       <c r="T4" s="28"/>
       <c r="U4" s="1"/>
       <c r="V4" s="40" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W4" s="27"/>
       <c r="X4" s="27"/>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="5" spans="1:27" ht="26.25">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -1398,7 +1398,7 @@
       <c r="T5" s="15"/>
       <c r="U5" s="1"/>
       <c r="V5" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
@@ -1406,9 +1406,9 @@
       <c r="Z5" s="11"/>
       <c r="AA5" s="12"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" ht="26.25">
       <c r="A6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1419,7 +1419,7 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="37" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -1439,7 +1439,7 @@
       <c r="T6" s="15"/>
       <c r="U6" s="1"/>
       <c r="V6" s="41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
@@ -1449,7 +1449,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1460,7 +1460,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="1"/>
       <c r="H7" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -1471,7 +1471,7 @@
       <c r="M7" s="6"/>
       <c r="N7" s="1"/>
       <c r="O7" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="9" spans="1:27" ht="15.75" thickBot="1">
       <c r="A9" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9" t="s">
@@ -1540,7 +1540,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="1"/>
       <c r="H9" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9" t="s">
@@ -1553,7 +1553,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="1"/>
       <c r="O9" s="38" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
@@ -1715,7 +1715,7 @@
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1746,7 +1746,7 @@
     </row>
     <row r="16" spans="1:27" ht="60.75" thickBot="1">
       <c r="A16" s="43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
